--- a/FishLandings/household groups/statistics/Distance from Lmat (cm)_output.xlsx
+++ b/FishLandings/household groups/statistics/Distance from Lmat (cm)_output.xlsx
@@ -416,16 +416,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>275.771359</v>
+        <v>94.756795</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>8.961534</v>
+        <v>3.895502</v>
       </c>
       <c r="E2">
-        <v>0.003068</v>
+        <v>0.049244</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>295.926948</v>
+        <v>451.817692</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>4.808257</v>
+        <v>9.287233000000001</v>
       </c>
       <c r="E3">
-        <v>0.009028</v>
+        <v>0.000119</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>6862.331044</v>
+        <v>8075.788968</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-1.856434</v>
+        <v>-1.261358</v>
       </c>
       <c r="H5">
-        <v>-4.27915</v>
+        <v>-3.049523</v>
       </c>
       <c r="I5">
-        <v>0.566282</v>
+        <v>0.526806</v>
       </c>
       <c r="J5">
-        <v>0.169299</v>
+        <v>0.221988</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>0.613538</v>
+        <v>1.31937</v>
       </c>
       <c r="H6">
-        <v>-1.995214</v>
+        <v>-0.558809</v>
       </c>
       <c r="I6">
-        <v>3.22229</v>
+        <v>3.197549</v>
       </c>
       <c r="J6">
-        <v>0.844062</v>
+        <v>0.224739</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>2.469972</v>
+        <v>2.580728</v>
       </c>
       <c r="H7">
-        <v>0.497728</v>
+        <v>1.168463</v>
       </c>
       <c r="I7">
-        <v>4.442216</v>
+        <v>3.992993</v>
       </c>
       <c r="J7">
-        <v>0.009662</v>
+        <v>6.600000000000001e-05</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/Distance from Lmat (cm)_output.xlsx
+++ b/FishLandings/household groups/statistics/Distance from Lmat (cm)_output.xlsx
@@ -416,16 +416,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>94.756795</v>
+        <v>183.027791</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3.895502</v>
+        <v>5.839491</v>
       </c>
       <c r="E2">
-        <v>0.049244</v>
+        <v>0.016475</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>451.817692</v>
+        <v>368.003</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>9.287233000000001</v>
+        <v>5.870558</v>
       </c>
       <c r="E3">
-        <v>0.000119</v>
+        <v>0.003276</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>8075.788968</v>
+        <v>6989.512267</v>
       </c>
       <c r="C4">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-1.261358</v>
+        <v>-1.729712</v>
       </c>
       <c r="H5">
-        <v>-3.049523</v>
+        <v>-4.174776</v>
       </c>
       <c r="I5">
-        <v>0.526806</v>
+        <v>0.715351</v>
       </c>
       <c r="J5">
-        <v>0.221988</v>
+        <v>0.219368</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>1.31937</v>
+        <v>1.106347</v>
       </c>
       <c r="H6">
-        <v>-0.558809</v>
+        <v>-1.526469</v>
       </c>
       <c r="I6">
-        <v>3.197549</v>
+        <v>3.739162</v>
       </c>
       <c r="J6">
-        <v>0.224739</v>
+        <v>0.583008</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>2.580728</v>
+        <v>2.836059</v>
       </c>
       <c r="H7">
-        <v>1.168463</v>
+        <v>0.845623</v>
       </c>
       <c r="I7">
-        <v>3.992993</v>
+        <v>4.826495</v>
       </c>
       <c r="J7">
-        <v>6.600000000000001e-05</v>
+        <v>0.002613</v>
       </c>
     </row>
   </sheetData>
